--- a/pc_scand/resources/case.xlsx
+++ b/pc_scand/resources/case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="13370" windowHeight="6860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="13810" windowHeight="7420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -51,12 +51,6 @@
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-      <color rgb="FF067D17"/>
-      <sz val="10"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -517,10 +511,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -529,33 +523,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -565,101 +562,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,9 +673,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,13 +1088,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
     <col width="9" customWidth="1" style="1" min="1" max="1"/>
     <col width="17.7363636363636" customWidth="1" style="1" min="2" max="2"/>
@@ -1116,7 +1107,7 @@
     <col width="9" customWidth="1" style="1" min="9" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39" customHeight="1" s="8">
+    <row r="1" ht="39" customHeight="1" s="7">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>result</t>
@@ -1154,10 +1145,10 @@
       </c>
       <c r="H1" s="2" t="n"/>
     </row>
-    <row r="2" ht="22.5" customHeight="1" s="8">
+    <row r="2" ht="22.5" customHeight="1" s="7">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
@@ -1188,12 +1179,11 @@
           <t>图片</t>
         </is>
       </c>
-      <c r="H2" s="5" t="n"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" s="8">
+    <row r="3" ht="22.5" customHeight="1" s="7">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
@@ -1224,12 +1214,11 @@
           <t>图片</t>
         </is>
       </c>
-      <c r="H3" s="5" t="n"/>
     </row>
-    <row r="4" ht="22.5" customHeight="1" s="8">
+    <row r="4" ht="22.5" customHeight="1" s="7">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
@@ -1249,7 +1238,7 @@
       </c>
       <c r="E4" s="5" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>300</t>
         </is>
       </c>
       <c r="F4" s="6" t="n">
@@ -1257,55 +1246,81 @@
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
+          <t>PDF</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="14.5" customHeight="1" s="7">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>玻璃面板</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.04236111111111111</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
           <t>图片</t>
         </is>
       </c>
-      <c r="H4" s="5" t="n"/>
     </row>
-    <row r="5" ht="14.5" customHeight="1" s="8">
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
+    <row r="6" ht="14.5" customHeight="1" s="7">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>玻璃面板</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.04305555555555556</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
     </row>
-    <row r="6" ht="14.5" customHeight="1" s="8">
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="6" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="8">
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="6" t="n"/>
-      <c r="H7" s="0" t="n"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="3" t="n"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="4" t="n"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="4" t="n"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="4" t="n"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="n"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="4" t="n"/>
-    </row>
+    <row r="7" ht="15" customHeight="1" s="7"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/pc_scand/resources/case.xlsx
+++ b/pc_scand/resources/case.xlsx
@@ -1,242 +1,196 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="13810" windowHeight="6860"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="13810" windowHeight="6860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Case" sheetId="1" r:id="rId1"/>
+    <sheet name="Case" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>结果</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>连接方式</t>
-  </si>
-  <si>
-    <t>纸张来源</t>
-  </si>
-  <si>
-    <t>色彩模式</t>
-  </si>
-  <si>
-    <t>纸张大小</t>
-  </si>
-  <si>
-    <t>分辨率</t>
-  </si>
-  <si>
-    <t>保存格式</t>
-  </si>
-  <si>
-    <t>系统</t>
-  </si>
-  <si>
-    <t>测试人</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>固件版本</t>
-  </si>
-  <si>
-    <t>JiyinScan 版本</t>
-  </si>
-  <si>
-    <t>Scaling_ratio</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
-    <font>
+  <numFmts count="0"/>
+  <fonts count="23">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FF067D17"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Courier New"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <color rgb="FF067D17"/>
+      <sz val="9.800000000000001"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -537,157 +491,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -743,11 +697,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1071,203 +1088,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.8" customWidth="1"/>
-    <col min="2" max="2" width="45.9166666666667" customWidth="1"/>
-    <col min="3" max="3" width="15.8416666666667" customWidth="1"/>
-    <col min="4" max="4" width="16.9583333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.8" customWidth="1"/>
-    <col min="6" max="6" width="16.3166666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.8" customWidth="1"/>
-    <col min="8" max="8" width="15.5166666666667" customWidth="1"/>
-    <col min="9" max="9" width="15.3583333333333" customWidth="1"/>
-    <col min="10" max="10" width="17.6" customWidth="1"/>
-    <col min="11" max="11" width="13.6" customWidth="1"/>
-    <col min="12" max="12" width="18.5583333333333" customWidth="1"/>
-    <col min="13" max="13" width="20" customWidth="1"/>
+    <col width="12.8" customWidth="1" min="1" max="1"/>
+    <col width="45.9166666666667" customWidth="1" min="2" max="2"/>
+    <col width="15.8416666666667" customWidth="1" min="3" max="3"/>
+    <col width="16.9583333333333" customWidth="1" min="4" max="4"/>
+    <col width="16.8" customWidth="1" min="5" max="5"/>
+    <col width="16.3166666666667" customWidth="1" min="6" max="6"/>
+    <col width="12.8" customWidth="1" min="7" max="7"/>
+    <col width="15.5166666666667" customWidth="1" min="8" max="8"/>
+    <col width="15.3583333333333" customWidth="1" min="9" max="9"/>
+    <col width="17.6" customWidth="1" min="10" max="10"/>
+    <col width="13.6" customWidth="1" min="11" max="11"/>
+    <col width="18.5583333333333" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" ht="26" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>结果</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>备注</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>连接方式</t>
+        </is>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>纸张来源</t>
+        </is>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>色彩模式</t>
+        </is>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>纸张大小</t>
+        </is>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>分辨率</t>
+        </is>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>保存格式</t>
+        </is>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Scaling_ratio</t>
+        </is>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="4:8">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="4:8">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="4:8">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="4:8">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="4:8">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="4:8">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="4:8">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="4:8">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="4:8">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="4:8">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="4:8">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="4:8">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="4:8">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="4:8">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="4:8">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="4:8">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="4:8">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="4:8">
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/pc_scand/resources/case.xlsx
+++ b/pc_scand/resources/case.xlsx
@@ -1,196 +1,231 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="13810" windowHeight="6860" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="18530" windowHeight="7010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Case" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="JiyinScan" sheetId="1" r:id="rId1"/>
+    <sheet name="PanelScan" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>连接方式</t>
+  </si>
+  <si>
+    <t>纸张来源</t>
+  </si>
+  <si>
+    <t>色彩模式</t>
+  </si>
+  <si>
+    <t>纸张大小</t>
+  </si>
+  <si>
+    <t>分辨率</t>
+  </si>
+  <si>
+    <t>保存格式</t>
+  </si>
+  <si>
+    <t>Scaling_ratio</t>
+  </si>
+  <si>
+    <t>单双面</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="23">
-    <font>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FF067D17"/>
       <name val="Courier New"/>
       <charset val="134"/>
-      <color rgb="FF067D17"/>
-      <sz val="9.800000000000001"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -491,157 +526,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -697,74 +729,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1088,82 +1057,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col width="12.8" customWidth="1" min="1" max="1"/>
-    <col width="45.9166666666667" customWidth="1" min="2" max="2"/>
-    <col width="15.8416666666667" customWidth="1" min="3" max="3"/>
-    <col width="16.9583333333333" customWidth="1" min="4" max="4"/>
-    <col width="16.8" customWidth="1" min="5" max="5"/>
-    <col width="16.3166666666667" customWidth="1" min="6" max="6"/>
-    <col width="12.8" customWidth="1" min="7" max="7"/>
-    <col width="15.5166666666667" customWidth="1" min="8" max="8"/>
-    <col width="15.3583333333333" customWidth="1" min="9" max="9"/>
-    <col width="17.6" customWidth="1" min="10" max="10"/>
-    <col width="13.6" customWidth="1" min="11" max="11"/>
-    <col width="18.5583333333333" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
+    <col min="1" max="1" width="12.8" customWidth="1"/>
+    <col min="2" max="2" width="45.9166666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.8416666666667" customWidth="1"/>
+    <col min="4" max="4" width="16.9583333333333" customWidth="1"/>
+    <col min="5" max="5" width="16.8" customWidth="1"/>
+    <col min="6" max="6" width="16.3166666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.8" customWidth="1"/>
+    <col min="8" max="8" width="15.5166666666667" customWidth="1"/>
+    <col min="9" max="9" width="15.3583333333333" customWidth="1"/>
+    <col min="10" max="10" width="17.6" customWidth="1"/>
+    <col min="11" max="11" width="13.6" customWidth="1"/>
+    <col min="12" max="12" width="18.5583333333333" customWidth="1"/>
+    <col min="13" max="13" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>结果</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>备注</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>连接方式</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>纸张来源</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>色彩模式</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>纸张大小</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>分辨率</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>保存格式</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Scaling_ratio</t>
-        </is>
+    <row r="1" ht="26" customHeight="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="29.9166666666667" customWidth="1"/>
+    <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="12.9166666666667" customWidth="1"/>
+    <col min="7" max="7" width="16.8333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="26" customHeight="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/pc_scand/resources/case.xlsx
+++ b/pc_scand/resources/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7010" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="JiyinScan" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="20">
   <si>
     <t>结果</t>
   </si>
@@ -44,6 +44,36 @@
     <t>Scaling_ratio</t>
   </si>
   <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>玻璃稿台</t>
+  </si>
+  <si>
+    <t>彩色</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>灰阶</t>
+  </si>
+  <si>
+    <t>黑白</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>输稿器</t>
+  </si>
+  <si>
+    <t>输稿器（双面）</t>
+  </si>
+  <si>
     <t>单双面</t>
   </si>
 </sst>
@@ -57,7 +87,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -70,6 +100,13 @@
       <color rgb="FF067D17"/>
       <name val="Courier New"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -526,51 +563,48 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,102 +614,109 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1059,13 +1100,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:H85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.8" customWidth="1"/>
     <col min="2" max="2" width="45.9166666666667" customWidth="1"/>
@@ -1111,6 +1152,1182 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="3:8">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>300</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>300</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>300</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <v>600</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <v>600</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>600</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2">
+        <v>300</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="2">
+        <v>300</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2">
+        <v>300</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>600</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2">
+        <v>600</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="2">
+        <v>600</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1200</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2">
+        <v>300</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2">
+        <v>300</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2">
+        <v>300</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2">
+        <v>600</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2">
+        <v>600</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2">
+        <v>600</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2">
+        <v>300</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2">
+        <v>300</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2">
+        <v>300</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="2">
+        <v>600</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="2">
+        <v>600</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="2">
+        <v>600</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2">
+        <v>300</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2">
+        <v>300</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2">
+        <v>300</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2">
+        <v>600</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="2">
+        <v>600</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="2">
+        <v>600</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="2">
+        <v>300</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2">
+        <v>300</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="2">
+        <v>300</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="2">
+        <v>600</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="2">
+        <v>600</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2">
+        <v>600</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
+      <c r="C44" s="3"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="3:8">
+      <c r="C45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="3"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="3:8">
+      <c r="C47" s="3"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="3:8">
+      <c r="C48" s="3"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="3:8">
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="3:8">
+      <c r="C50" s="3"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="3:8">
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="3:8">
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="3:8">
+      <c r="C53" s="3"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="3:8">
+      <c r="C54" s="3"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="3"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="3:8">
+      <c r="C56" s="3"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" s="3"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="3:8">
+      <c r="C58" s="3"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="3:8">
+      <c r="C59" s="3"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="3:8">
+      <c r="C60" s="3"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="3:8">
+      <c r="C61" s="3"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="3:8">
+      <c r="C62" s="3"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" spans="3:8">
+      <c r="C63" s="3"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="3:8">
+      <c r="C64" s="3"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="3"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="3"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="3:8">
+      <c r="C67" s="3"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="3:8">
+      <c r="C68" s="3"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="3:8">
+      <c r="C69" s="3"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70" s="3"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="C71" s="3"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="3:8">
+      <c r="C72" s="3"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="3:8">
+      <c r="C73" s="3"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="3:8">
+      <c r="C74" s="3"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="3:8">
+      <c r="C75" s="3"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="C76" s="3"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="3:8">
+      <c r="C77" s="3"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="3:8">
+      <c r="C78" s="3"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="3:8">
+      <c r="C79" s="3"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="3:8">
+      <c r="C80" s="3"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="C81" s="3"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="3:8">
+      <c r="C82" s="3"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="3:8">
+      <c r="C83" s="3"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="3:8">
+      <c r="C84" s="3"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="3:8">
+      <c r="C85" s="3"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1122,11 +2339,11 @@
   <sheetPr/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="29.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
@@ -1156,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>

--- a/pc_scand/resources/case.xlsx
+++ b/pc_scand/resources/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="18530" windowHeight="7010"/>
   </bookViews>
   <sheets>
     <sheet name="JiyinScan" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>结果</t>
   </si>
@@ -63,15 +63,6 @@
   </si>
   <si>
     <t>黑白</t>
-  </si>
-  <si>
-    <t>PDF</t>
-  </si>
-  <si>
-    <t>输稿器</t>
-  </si>
-  <si>
-    <t>输稿器（双面）</t>
   </si>
   <si>
     <t>单双面</t>
@@ -1103,10 +1094,10 @@
   <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:H85"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.8" customWidth="1"/>
     <col min="2" max="2" width="45.9166666666667" customWidth="1"/>
@@ -1166,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -1186,7 +1177,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="2">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>13</v>
@@ -1213,784 +1204,316 @@
       </c>
     </row>
     <row r="5" spans="3:8">
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2">
-        <v>600</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="3:8">
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2">
-        <v>600</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="3:8">
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="2">
-        <v>600</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="3:8">
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="3:8">
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="3:8">
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="3:8">
-      <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2">
-        <v>300</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="3:8">
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2">
-        <v>300</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="3:8">
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="2">
-        <v>300</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="3:8">
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="2">
-        <v>600</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="2">
-        <v>600</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="2">
-        <v>600</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1200</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2">
-        <v>300</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2">
-        <v>300</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2">
-        <v>300</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="2">
-        <v>600</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="2">
-        <v>600</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="2">
-        <v>600</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="2">
-        <v>300</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="2">
-        <v>300</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="2">
-        <v>300</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="2">
-        <v>600</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="2">
-        <v>600</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="2">
-        <v>600</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="2">
-        <v>300</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="2">
-        <v>300</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="2">
-        <v>300</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="2">
-        <v>600</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="2">
-        <v>600</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="2">
-        <v>600</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="2">
-        <v>300</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="2">
-        <v>300</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="2">
-        <v>300</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="2">
-        <v>600</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="3:8">
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="2">
-        <v>600</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="43" spans="3:8">
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="2">
-        <v>600</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="3"/>
@@ -2343,7 +1866,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29.9166666666667" customWidth="1"/>
     <col min="3" max="3" width="20.1666666666667" customWidth="1"/>
@@ -2373,7 +1896,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>4</v>
